--- a/OpenCart-ManualTesting-main/Test cases (Open Cart ).xlsx
+++ b/OpenCart-ManualTesting-main/Test cases (Open Cart ).xlsx
@@ -9612,8 +9612,8 @@
   </sheetPr>
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10364,7 +10364,7 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
